--- a/test list.xlsx
+++ b/test list.xlsx
@@ -4,26 +4,26 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="120" windowWidth="19128" windowHeight="7380"/>
+    <workbookView xWindow="0" yWindow="120" windowWidth="19128" windowHeight="7380" firstSheet="1" activeTab="9"/>
   </bookViews>
   <sheets>
-    <sheet name="משחקים לוגיקה" sheetId="1" r:id="rId1"/>
+    <sheet name="משחקים לוגיקה" sheetId="1" state="hidden" r:id="rId1"/>
+    <sheet name="robot" sheetId="2" r:id="rId2"/>
+    <sheet name="sky" sheetId="3" r:id="rId3"/>
+    <sheet name="map" sheetId="5" r:id="rId4"/>
+    <sheet name="reverse map" sheetId="9" r:id="rId5"/>
+    <sheet name="castle" sheetId="6" r:id="rId6"/>
+    <sheet name="גיליון6" sheetId="7" state="hidden" r:id="rId7"/>
+    <sheet name="vilage identity" sheetId="4" r:id="rId8"/>
+    <sheet name="village location" sheetId="8" r:id="rId9"/>
+    <sheet name="bll_games" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="39">
-  <si>
-    <t>מס"ד</t>
-  </si>
-  <si>
-    <t>בדיקה</t>
-  </si>
-  <si>
-    <t>תוצאה רצויה</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="754" uniqueCount="112">
   <si>
     <t>robot game</t>
   </si>
@@ -131,6 +131,234 @@
   </si>
   <si>
     <t>game over אצל השחקן</t>
+  </si>
+  <si>
+    <t>מספר בדיקה</t>
+  </si>
+  <si>
+    <t>מודול נבדק</t>
+  </si>
+  <si>
+    <t>תיאור בדיקה</t>
+  </si>
+  <si>
+    <t>פונקציה נבדקת</t>
+  </si>
+  <si>
+    <t>תוצאה צפויה</t>
+  </si>
+  <si>
+    <t>robot</t>
+  </si>
+  <si>
+    <t>תוצאה נצפית</t>
+  </si>
+  <si>
+    <t>updateTimeCircle</t>
+  </si>
+  <si>
+    <t>פונקציות רבות</t>
+  </si>
+  <si>
+    <t>כלל הפונקציות</t>
+  </si>
+  <si>
+    <t>imagePlayPuase_MouseUp</t>
+  </si>
+  <si>
+    <t>m_oWorker_DoWork</t>
+  </si>
+  <si>
+    <t>GetParamFromCfgFile</t>
+  </si>
+  <si>
+    <t>keyDownEventHandler</t>
+  </si>
+  <si>
+    <t>updateStageAndLevel</t>
+  </si>
+  <si>
+    <t>updateStatistics</t>
+  </si>
+  <si>
+    <t>ExitToMenu</t>
+  </si>
+  <si>
+    <t>constructors</t>
+  </si>
+  <si>
+    <t>הgui תקין בכלל השלבים והרמות</t>
+  </si>
+  <si>
+    <t>פונ' עטופות בtry וcatch</t>
+  </si>
+  <si>
+    <t>לא גורם לאפליקציה לקרוס</t>
+  </si>
+  <si>
+    <t>אתחול פרמטרים תקין</t>
+  </si>
+  <si>
+    <t>זמן השעון מתקדם בצורה תקינה</t>
+  </si>
+  <si>
+    <t>הworker עובד בצורה תקינה</t>
+  </si>
+  <si>
+    <t>מקבלים את הפרמטרים בצורה תקינה והממשק פועל ע"פ הם בהתאמה</t>
+  </si>
+  <si>
+    <t>בדיקה שהממשק מגיב בהתאמה ללחיצה על המקשים</t>
+  </si>
+  <si>
+    <t>השלבים והרמות משתנים בצורה טובה</t>
+  </si>
+  <si>
+    <t>DrawBoard functions</t>
+  </si>
+  <si>
+    <t>ציור הממשק עובד בצורה טובה הלוח</t>
+  </si>
+  <si>
+    <t>הסטטיסטיקות מתעדכנות בזמן המתאים ומעבירות את הפרמטרים הנכונים</t>
+  </si>
+  <si>
+    <t>יציאה עובדת בצורה תקינה ולא גורמת למשחק לקרוס</t>
+  </si>
+  <si>
+    <t>sky</t>
+  </si>
+  <si>
+    <t>map</t>
+  </si>
+  <si>
+    <t>reverse map</t>
+  </si>
+  <si>
+    <t>castle</t>
+  </si>
+  <si>
+    <t>vilage identity</t>
+  </si>
+  <si>
+    <t>village location</t>
+  </si>
+  <si>
+    <t>bll games</t>
+  </si>
+  <si>
+    <t>InsertGameStatistics</t>
+  </si>
+  <si>
+    <t>GetTheRectangleNumber</t>
+  </si>
+  <si>
+    <t>GenerateNumber</t>
+  </si>
+  <si>
+    <t>SpecialImageWasGenerate</t>
+  </si>
+  <si>
+    <t>SpecialCellWasGenerate</t>
+  </si>
+  <si>
+    <t>GenerateTestVillageGame</t>
+  </si>
+  <si>
+    <t>GenerateTestSkyGame</t>
+  </si>
+  <si>
+    <t>GenerateTest</t>
+  </si>
+  <si>
+    <t>PicturePerformedInLearningStageSkyGame</t>
+  </si>
+  <si>
+    <t>getStageDetails</t>
+  </si>
+  <si>
+    <t>ReadXml</t>
+  </si>
+  <si>
+    <t>קבלה והעברה תקינה של פרמטרים</t>
+  </si>
+  <si>
+    <t>העברה והקלה תקינה</t>
+  </si>
+  <si>
+    <t xml:space="preserve">נזין שלבים ורמות שונים </t>
+  </si>
+  <si>
+    <t>נבדקות קריסות של פונקציות ע"י הזנה לא תקינה של פרמטרים</t>
+  </si>
+  <si>
+    <t>נלחץ פעמים רבות על כפתור הpause</t>
+  </si>
+  <si>
+    <t>נפנה אל הconstructors השונים עם פרמטרים שונים</t>
+  </si>
+  <si>
+    <t>נזין זמנים שונים למחלקה</t>
+  </si>
+  <si>
+    <t>נשחק במשחקים עם debug על הworker</t>
+  </si>
+  <si>
+    <t>נזין את כלל הפרמטרים האפשריים בקובץ</t>
+  </si>
+  <si>
+    <t>נלחץ על כלל המקשים של המקלדת</t>
+  </si>
+  <si>
+    <t>נשחק ונעבור בין רמות ושלבים</t>
+  </si>
+  <si>
+    <t>נשחק במשחק ונשים debbuger על פונציית עדכון הסטטיסטיקות</t>
+  </si>
+  <si>
+    <t>נלחץ בשלבים שונים של המשחק על esc (שלב לימוד,מבחן,Puase).</t>
+  </si>
+  <si>
+    <t>נזין את כל החלקים האפשרים בלוח בדגש על קצוות הריבועים</t>
+  </si>
+  <si>
+    <t>נקבל את המספר התקין של הריבוע</t>
+  </si>
+  <si>
+    <t>נזין את כלל הפרמטרים האופציונליים לקובץ הקינפוג</t>
+  </si>
+  <si>
+    <t>נקבל את הפרמרטים הנכונים</t>
+  </si>
+  <si>
+    <t>נפנה אל הפונקציה כמות רבה של פעמים</t>
+  </si>
+  <si>
+    <t>נבדוק שהמספר שמתקבל הוא תקין כלומר בטווח הרצוי</t>
+  </si>
+  <si>
+    <t xml:space="preserve">נזין מספרים אשר חזרו ולא חזרו על עצמם </t>
+  </si>
+  <si>
+    <t>בדיקה שהפונקציה מחזירה פרמטרים תקינים</t>
+  </si>
+  <si>
+    <t>הזנה בצורה ידנית של הפרמטרים בתוך הפונקציה(number) בזמן המשחק</t>
+  </si>
+  <si>
+    <t>הזנה בצורה ידנית של הפרמטרים לפונקציה</t>
+  </si>
+  <si>
+    <t>הכנת קובץ xml תקין ונבצע מעבר על הפרמטרים שמקבלים מהקובץ לאפליקציה</t>
+  </si>
+  <si>
+    <t>כלל הפרמטרים תקינים(זהים למה שרשום בקובץ)</t>
+  </si>
+  <si>
+    <t>נוודא שהשלבים שמתקבלים תקינים</t>
+  </si>
+  <si>
+    <t>בדיקה שפונקציה עובדרת בצורה תקינה(לפי הפירוט שרשום בתיעוד)</t>
   </si>
 </sst>
 </file>
@@ -265,7 +493,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="פלט" xfId="1" builtinId="21"/>
   </cellStyles>
-  <dxfs count="159">
+  <dxfs count="151">
     <dxf>
       <fill>
         <patternFill>
@@ -297,6 +525,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FF2FF138"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
@@ -318,6 +553,20 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FF2FF138"/>
         </patternFill>
       </fill>
@@ -339,6 +588,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FF2FF138"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
@@ -360,6 +616,20 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FF2FF138"/>
         </patternFill>
       </fill>
@@ -381,6 +651,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FF2FF138"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
@@ -402,6 +679,20 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FF2FF138"/>
         </patternFill>
       </fill>
@@ -423,6 +714,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FF2FF138"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
@@ -444,6 +742,20 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FF2FF138"/>
         </patternFill>
       </fill>
@@ -465,6 +777,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FF2FF138"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
@@ -480,153 +799,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FF2FF138"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF2FF138"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF2FF138"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF2FF138"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF2FF138"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF2FF138"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF2FF138"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF2FF138"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1674,849 +1846,909 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A4:L30"/>
+  <dimension ref="A4:N30"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="B7" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView rightToLeft="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
+    <col min="3" max="3" width="11.5" customWidth="1"/>
     <col min="4" max="4" width="66.8984375" customWidth="1"/>
-    <col min="5" max="5" width="49" customWidth="1"/>
-    <col min="6" max="6" width="10.8984375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.69921875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.09765625" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="23.19921875" customWidth="1"/>
+    <col min="7" max="7" width="49" customWidth="1"/>
+    <col min="8" max="8" width="10.8984375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="8.69921875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.8984375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.09765625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.69921875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.8984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:14">
       <c r="A4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="I4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="J4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="K4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="L4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="J4" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="K4" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="L4" s="6" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+      <c r="M4" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="N4" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
       <c r="C5" s="4">
         <v>1</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E5" s="3"/>
-      <c r="F5" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>14</v>
-      </c>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
       <c r="H5" s="3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>11</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
       <c r="C6" s="4">
         <v>2</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E6" s="3"/>
-      <c r="F6" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>14</v>
-      </c>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
       <c r="H6" s="3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>11</v>
+      </c>
+      <c r="M6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="N6" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
       <c r="C7" s="4">
         <v>3</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E7" s="3"/>
-      <c r="F7" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>14</v>
-      </c>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
       <c r="H7" s="3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>11</v>
+      </c>
+      <c r="M7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="N7" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
       <c r="C8" s="4">
         <v>4</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E8" s="3"/>
-      <c r="F8" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>14</v>
-      </c>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
       <c r="H8" s="3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>11</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
       <c r="C9" s="4">
         <v>5</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E9" s="3"/>
-      <c r="F9" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>13</v>
-      </c>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
       <c r="H9" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="L9" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>10</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
       <c r="C10" s="4">
         <v>6</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E10" s="3"/>
-      <c r="F10" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>14</v>
-      </c>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
       <c r="H10" s="3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="L10" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>11</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
       <c r="C11" s="4">
         <v>7</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E11" s="3"/>
-      <c r="F11" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>14</v>
-      </c>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
       <c r="H11" s="3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="L11" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>11</v>
+      </c>
+      <c r="M11" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="N11" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
       <c r="C12" s="4">
         <v>8</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E12" s="3"/>
-      <c r="F12" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>14</v>
-      </c>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
       <c r="H12" s="3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="L12" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>11</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
       <c r="C13" s="4">
         <v>9</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E13" s="3"/>
-      <c r="F13" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>14</v>
-      </c>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
       <c r="H13" s="3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="L13" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>11</v>
+      </c>
+      <c r="M13" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="N13" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
       <c r="C14" s="4">
         <v>10</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E14" s="3"/>
-      <c r="F14" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>14</v>
-      </c>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
       <c r="H14" s="3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="L14" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>11</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
       <c r="C15" s="4">
         <v>11</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E15" s="3"/>
-      <c r="F15" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>14</v>
-      </c>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
       <c r="H15" s="3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="K15" s="3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="L15" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>11</v>
+      </c>
+      <c r="M15" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="N15" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
       <c r="C16" s="4">
         <v>12</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E16" s="3"/>
-      <c r="F16" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>14</v>
-      </c>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
       <c r="H16" s="3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="K16" s="3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="L16" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" spans="3:12">
+        <v>11</v>
+      </c>
+      <c r="M16" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="N16" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="3:14">
       <c r="C17" s="4">
         <v>13</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E17" s="3"/>
-      <c r="F17" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>14</v>
-      </c>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
       <c r="H17" s="3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="K17" s="3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="L17" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="18" spans="3:12">
+        <v>11</v>
+      </c>
+      <c r="M17" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="N17" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="3:14">
       <c r="C18" s="4">
         <v>14</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E18" s="3"/>
-      <c r="F18" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>14</v>
-      </c>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
       <c r="H18" s="3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="K18" s="3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="L18" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="19" spans="3:12">
+        <v>11</v>
+      </c>
+      <c r="M18" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="N18" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="3:14">
       <c r="C19" s="4">
         <v>15</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E19" s="3"/>
-      <c r="F19" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G19" s="3" t="s">
-        <v>14</v>
-      </c>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
       <c r="H19" s="3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="K19" s="3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="L19" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="20" spans="3:12">
+        <v>11</v>
+      </c>
+      <c r="M19" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="N19" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="3:14">
       <c r="C20" s="4">
         <v>16</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E20" s="3"/>
-      <c r="F20" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>14</v>
-      </c>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
       <c r="H20" s="3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="K20" s="3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="L20" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="21" spans="3:12">
+        <v>11</v>
+      </c>
+      <c r="M20" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="N20" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="3:14">
       <c r="C21" s="4">
         <v>17</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E21" s="3"/>
-      <c r="F21" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>14</v>
-      </c>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
       <c r="H21" s="3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="K21" s="3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="L21" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="22" spans="3:12">
+        <v>11</v>
+      </c>
+      <c r="M21" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="N21" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="3:14">
       <c r="C22" s="4">
         <v>18</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E22" s="3"/>
-      <c r="F22" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>14</v>
-      </c>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
       <c r="H22" s="3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="K22" s="3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="L22" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="23" spans="3:12">
+        <v>11</v>
+      </c>
+      <c r="M22" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="N22" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="3:14">
       <c r="C23" s="4">
         <v>19</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E23" s="3"/>
-      <c r="F23" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>14</v>
-      </c>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
       <c r="H23" s="3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="K23" s="3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="L23" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="24" spans="3:12">
+        <v>11</v>
+      </c>
+      <c r="M23" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="N23" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="3:14">
       <c r="C24" s="4">
         <v>20</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E24" s="3"/>
-      <c r="F24" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>14</v>
-      </c>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
       <c r="H24" s="3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="I24" s="3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="K24" s="3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="L24" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="25" spans="3:12">
+        <v>11</v>
+      </c>
+      <c r="M24" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="N24" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="3:14">
       <c r="C25" s="4">
         <v>21</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E25" s="3"/>
-      <c r="F25" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G25" s="3" t="s">
-        <v>14</v>
-      </c>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
       <c r="H25" s="3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="I25" s="3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="K25" s="3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="L25" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="26" spans="3:12">
+        <v>11</v>
+      </c>
+      <c r="M25" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="N25" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14">
       <c r="C26" s="4">
         <v>22</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E26" s="3"/>
-      <c r="F26" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>14</v>
-      </c>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
       <c r="H26" s="3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="I26" s="3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="J26" s="3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="K26" s="3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="L26" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="27" spans="3:12">
+        <v>11</v>
+      </c>
+      <c r="M26" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="N26" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" spans="3:14">
       <c r="C27" s="4">
         <v>23</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E27" s="3"/>
-      <c r="F27" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G27" s="3" t="s">
-        <v>14</v>
-      </c>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
       <c r="H27" s="3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="I27" s="3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="J27" s="3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="K27" s="3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="L27" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="28" spans="3:12">
+        <v>11</v>
+      </c>
+      <c r="M27" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="N27" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28" spans="3:14">
       <c r="C28" s="4">
         <v>24</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E28" s="3"/>
-      <c r="F28" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G28" s="3" t="s">
-        <v>14</v>
-      </c>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
       <c r="H28" s="3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="I28" s="3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="J28" s="3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="K28" s="3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="L28" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="29" spans="3:12">
+        <v>11</v>
+      </c>
+      <c r="M28" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="N28" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14">
       <c r="C29" s="4">
         <v>25</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>14</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="3"/>
       <c r="H29" s="3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="I29" s="3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="J29" s="3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="K29" s="3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="L29" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="30" spans="3:12">
+        <v>11</v>
+      </c>
+      <c r="M29" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="N29" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="30" spans="3:14">
       <c r="C30" s="4">
         <v>26</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="E30" s="3"/>
-      <c r="F30" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G30" s="3" t="s">
-        <v>14</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="3"/>
       <c r="H30" s="3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="I30" s="3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="J30" s="3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="K30" s="3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="L30" s="3" t="s">
-        <v>14</v>
+        <v>11</v>
+      </c>
+      <c r="M30" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="N30" s="3" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="F5:J28">
-    <cfRule type="containsBlanks" dxfId="158" priority="165">
-      <formula>LEN(TRIM(F5))=0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="157" priority="166" operator="equal">
+  <conditionalFormatting sqref="H5:L28">
+    <cfRule type="containsBlanks" dxfId="150" priority="165">
+      <formula>LEN(TRIM(H5))=0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="149" priority="166" operator="equal">
       <formula>"x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F5:J28">
-    <cfRule type="cellIs" dxfId="156" priority="173" operator="equal">
+  <conditionalFormatting sqref="H5:L28">
+    <cfRule type="cellIs" dxfId="148" priority="173" operator="equal">
       <formula>"v"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="174">
@@ -2528,16 +2760,16 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K5:K28">
-    <cfRule type="containsBlanks" dxfId="155" priority="159">
-      <formula>LEN(TRIM(K5))=0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="154" priority="160" operator="equal">
+  <conditionalFormatting sqref="M5:M28">
+    <cfRule type="containsBlanks" dxfId="147" priority="159">
+      <formula>LEN(TRIM(M5))=0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="146" priority="160" operator="equal">
       <formula>"x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K5:K28">
-    <cfRule type="cellIs" dxfId="153" priority="157" operator="equal">
+  <conditionalFormatting sqref="M5:M28">
+    <cfRule type="cellIs" dxfId="145" priority="157" operator="equal">
       <formula>"v"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="158">
@@ -2549,16 +2781,16 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L5:L28">
-    <cfRule type="containsBlanks" dxfId="152" priority="155">
-      <formula>LEN(TRIM(L5))=0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="151" priority="156" operator="equal">
+  <conditionalFormatting sqref="N5:N28">
+    <cfRule type="containsBlanks" dxfId="144" priority="155">
+      <formula>LEN(TRIM(N5))=0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="143" priority="156" operator="equal">
       <formula>"x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L5:L28">
-    <cfRule type="cellIs" dxfId="150" priority="153" operator="equal">
+  <conditionalFormatting sqref="N5:N28">
+    <cfRule type="cellIs" dxfId="142" priority="153" operator="equal">
       <formula>"v"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="154">
@@ -2570,16 +2802,16 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K5">
-    <cfRule type="containsBlanks" dxfId="149" priority="151">
-      <formula>LEN(TRIM(K5))=0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="148" priority="152" operator="equal">
+  <conditionalFormatting sqref="M5">
+    <cfRule type="containsBlanks" dxfId="141" priority="151">
+      <formula>LEN(TRIM(M5))=0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="140" priority="152" operator="equal">
       <formula>"x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K5">
-    <cfRule type="cellIs" dxfId="147" priority="149" operator="equal">
+  <conditionalFormatting sqref="M5">
+    <cfRule type="cellIs" dxfId="139" priority="149" operator="equal">
       <formula>"v"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="150">
@@ -2591,16 +2823,16 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L5">
-    <cfRule type="containsBlanks" dxfId="146" priority="147">
-      <formula>LEN(TRIM(L5))=0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="145" priority="148" operator="equal">
+  <conditionalFormatting sqref="N5">
+    <cfRule type="containsBlanks" dxfId="138" priority="147">
+      <formula>LEN(TRIM(N5))=0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="137" priority="148" operator="equal">
       <formula>"x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L5">
-    <cfRule type="cellIs" dxfId="144" priority="145" operator="equal">
+  <conditionalFormatting sqref="N5">
+    <cfRule type="cellIs" dxfId="136" priority="145" operator="equal">
       <formula>"v"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="146">
@@ -2612,16 +2844,16 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F29:J29">
-    <cfRule type="containsBlanks" dxfId="143" priority="143">
-      <formula>LEN(TRIM(F29))=0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="142" priority="144" operator="equal">
+  <conditionalFormatting sqref="H29:L29">
+    <cfRule type="containsBlanks" dxfId="135" priority="143">
+      <formula>LEN(TRIM(H29))=0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="134" priority="144" operator="equal">
       <formula>"x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F29:J29">
-    <cfRule type="cellIs" dxfId="141" priority="141" operator="equal">
+  <conditionalFormatting sqref="H29:L29">
+    <cfRule type="cellIs" dxfId="133" priority="141" operator="equal">
       <formula>"v"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="142">
@@ -2633,16 +2865,16 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K29">
-    <cfRule type="containsBlanks" dxfId="140" priority="139">
-      <formula>LEN(TRIM(K29))=0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="139" priority="140" operator="equal">
+  <conditionalFormatting sqref="M29">
+    <cfRule type="containsBlanks" dxfId="132" priority="139">
+      <formula>LEN(TRIM(M29))=0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="131" priority="140" operator="equal">
       <formula>"x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K29">
-    <cfRule type="cellIs" dxfId="138" priority="137" operator="equal">
+  <conditionalFormatting sqref="M29">
+    <cfRule type="cellIs" dxfId="130" priority="137" operator="equal">
       <formula>"v"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="138">
@@ -2654,16 +2886,16 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L29">
-    <cfRule type="containsBlanks" dxfId="137" priority="135">
-      <formula>LEN(TRIM(L29))=0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="136" priority="136" operator="equal">
+  <conditionalFormatting sqref="N29">
+    <cfRule type="containsBlanks" dxfId="129" priority="135">
+      <formula>LEN(TRIM(N29))=0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="128" priority="136" operator="equal">
       <formula>"x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L29">
-    <cfRule type="cellIs" dxfId="135" priority="133" operator="equal">
+  <conditionalFormatting sqref="N29">
+    <cfRule type="cellIs" dxfId="127" priority="133" operator="equal">
       <formula>"v"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="134">
@@ -2675,16 +2907,16 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K8:L8">
-    <cfRule type="containsBlanks" dxfId="134" priority="131">
-      <formula>LEN(TRIM(K8))=0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="133" priority="132" operator="equal">
+  <conditionalFormatting sqref="M8:N8">
+    <cfRule type="containsBlanks" dxfId="126" priority="131">
+      <formula>LEN(TRIM(M8))=0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="125" priority="132" operator="equal">
       <formula>"x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K8:L8">
-    <cfRule type="cellIs" dxfId="132" priority="129" operator="equal">
+  <conditionalFormatting sqref="M8:N8">
+    <cfRule type="cellIs" dxfId="124" priority="129" operator="equal">
       <formula>"v"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="130">
@@ -2696,16 +2928,16 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K9:L9">
-    <cfRule type="containsBlanks" dxfId="131" priority="127">
-      <formula>LEN(TRIM(K9))=0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="130" priority="128" operator="equal">
+  <conditionalFormatting sqref="M9:N9">
+    <cfRule type="containsBlanks" dxfId="123" priority="127">
+      <formula>LEN(TRIM(M9))=0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="122" priority="128" operator="equal">
       <formula>"x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K9:L9">
-    <cfRule type="cellIs" dxfId="129" priority="125" operator="equal">
+  <conditionalFormatting sqref="M9:N9">
+    <cfRule type="cellIs" dxfId="121" priority="125" operator="equal">
       <formula>"v"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="126">
@@ -2717,16 +2949,16 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K10:L10">
-    <cfRule type="containsBlanks" dxfId="128" priority="123">
-      <formula>LEN(TRIM(K10))=0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="127" priority="124" operator="equal">
+  <conditionalFormatting sqref="M10:N10">
+    <cfRule type="containsBlanks" dxfId="120" priority="123">
+      <formula>LEN(TRIM(M10))=0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="119" priority="124" operator="equal">
       <formula>"x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K10:L10">
-    <cfRule type="cellIs" dxfId="126" priority="121" operator="equal">
+  <conditionalFormatting sqref="M10:N10">
+    <cfRule type="cellIs" dxfId="118" priority="121" operator="equal">
       <formula>"v"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="122">
@@ -2738,16 +2970,16 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K12:L12">
-    <cfRule type="containsBlanks" dxfId="125" priority="119">
-      <formula>LEN(TRIM(K12))=0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="124" priority="120" operator="equal">
+  <conditionalFormatting sqref="M12:N12">
+    <cfRule type="containsBlanks" dxfId="117" priority="119">
+      <formula>LEN(TRIM(M12))=0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="116" priority="120" operator="equal">
       <formula>"x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K12:L12">
-    <cfRule type="cellIs" dxfId="123" priority="117" operator="equal">
+  <conditionalFormatting sqref="M12:N12">
+    <cfRule type="cellIs" dxfId="115" priority="117" operator="equal">
       <formula>"v"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="118">
@@ -2759,16 +2991,16 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K13:L13">
-    <cfRule type="containsBlanks" dxfId="122" priority="115">
-      <formula>LEN(TRIM(K13))=0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="121" priority="116" operator="equal">
+  <conditionalFormatting sqref="M13:N13">
+    <cfRule type="containsBlanks" dxfId="114" priority="115">
+      <formula>LEN(TRIM(M13))=0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="113" priority="116" operator="equal">
       <formula>"x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K13:L13">
-    <cfRule type="cellIs" dxfId="120" priority="113" operator="equal">
+  <conditionalFormatting sqref="M13:N13">
+    <cfRule type="cellIs" dxfId="112" priority="113" operator="equal">
       <formula>"v"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="114">
@@ -2780,16 +3012,16 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K14:L14">
-    <cfRule type="containsBlanks" dxfId="119" priority="111">
-      <formula>LEN(TRIM(K14))=0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="118" priority="112" operator="equal">
+  <conditionalFormatting sqref="M14:N14">
+    <cfRule type="containsBlanks" dxfId="111" priority="111">
+      <formula>LEN(TRIM(M14))=0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="110" priority="112" operator="equal">
       <formula>"x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K14:L14">
-    <cfRule type="cellIs" dxfId="117" priority="109" operator="equal">
+  <conditionalFormatting sqref="M14:N14">
+    <cfRule type="cellIs" dxfId="109" priority="109" operator="equal">
       <formula>"v"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="110">
@@ -2801,16 +3033,16 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K15:L15">
-    <cfRule type="containsBlanks" dxfId="116" priority="107">
-      <formula>LEN(TRIM(K15))=0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="115" priority="108" operator="equal">
+  <conditionalFormatting sqref="M15:N15">
+    <cfRule type="containsBlanks" dxfId="108" priority="107">
+      <formula>LEN(TRIM(M15))=0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="107" priority="108" operator="equal">
       <formula>"x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K15:L15">
-    <cfRule type="cellIs" dxfId="114" priority="105" operator="equal">
+  <conditionalFormatting sqref="M15:N15">
+    <cfRule type="cellIs" dxfId="106" priority="105" operator="equal">
       <formula>"v"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="106">
@@ -2822,16 +3054,16 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K16:L16">
-    <cfRule type="containsBlanks" dxfId="113" priority="103">
-      <formula>LEN(TRIM(K16))=0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="112" priority="104" operator="equal">
+  <conditionalFormatting sqref="M16:N16">
+    <cfRule type="containsBlanks" dxfId="105" priority="103">
+      <formula>LEN(TRIM(M16))=0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="104" priority="104" operator="equal">
       <formula>"x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K16:L16">
-    <cfRule type="cellIs" dxfId="111" priority="101" operator="equal">
+  <conditionalFormatting sqref="M16:N16">
+    <cfRule type="cellIs" dxfId="103" priority="101" operator="equal">
       <formula>"v"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="102">
@@ -2843,16 +3075,16 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K17:L17">
-    <cfRule type="containsBlanks" dxfId="110" priority="99">
-      <formula>LEN(TRIM(K17))=0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="109" priority="100" operator="equal">
+  <conditionalFormatting sqref="M17:N17">
+    <cfRule type="containsBlanks" dxfId="102" priority="99">
+      <formula>LEN(TRIM(M17))=0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="101" priority="100" operator="equal">
       <formula>"x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K17:L17">
-    <cfRule type="cellIs" dxfId="108" priority="97" operator="equal">
+  <conditionalFormatting sqref="M17:N17">
+    <cfRule type="cellIs" dxfId="100" priority="97" operator="equal">
       <formula>"v"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="98">
@@ -2864,16 +3096,16 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K18:L18">
-    <cfRule type="containsBlanks" dxfId="107" priority="95">
-      <formula>LEN(TRIM(K18))=0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="106" priority="96" operator="equal">
+  <conditionalFormatting sqref="M18:N18">
+    <cfRule type="containsBlanks" dxfId="99" priority="95">
+      <formula>LEN(TRIM(M18))=0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="98" priority="96" operator="equal">
       <formula>"x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K18:L18">
-    <cfRule type="cellIs" dxfId="105" priority="93" operator="equal">
+  <conditionalFormatting sqref="M18:N18">
+    <cfRule type="cellIs" dxfId="97" priority="93" operator="equal">
       <formula>"v"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="94">
@@ -2885,16 +3117,16 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K19:L19">
-    <cfRule type="containsBlanks" dxfId="104" priority="91">
-      <formula>LEN(TRIM(K19))=0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="103" priority="92" operator="equal">
+  <conditionalFormatting sqref="M19:N19">
+    <cfRule type="containsBlanks" dxfId="96" priority="91">
+      <formula>LEN(TRIM(M19))=0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="95" priority="92" operator="equal">
       <formula>"x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K19:L19">
-    <cfRule type="cellIs" dxfId="102" priority="89" operator="equal">
+  <conditionalFormatting sqref="M19:N19">
+    <cfRule type="cellIs" dxfId="94" priority="89" operator="equal">
       <formula>"v"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="90">
@@ -2906,16 +3138,16 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K21:L21">
-    <cfRule type="containsBlanks" dxfId="101" priority="87">
-      <formula>LEN(TRIM(K21))=0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="100" priority="88" operator="equal">
+  <conditionalFormatting sqref="M21:N21">
+    <cfRule type="containsBlanks" dxfId="93" priority="87">
+      <formula>LEN(TRIM(M21))=0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="92" priority="88" operator="equal">
       <formula>"x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K21:L21">
-    <cfRule type="cellIs" dxfId="99" priority="85" operator="equal">
+  <conditionalFormatting sqref="M21:N21">
+    <cfRule type="cellIs" dxfId="91" priority="85" operator="equal">
       <formula>"v"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="86">
@@ -2927,16 +3159,16 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K23:L23">
-    <cfRule type="containsBlanks" dxfId="98" priority="83">
-      <formula>LEN(TRIM(K23))=0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="97" priority="84" operator="equal">
+  <conditionalFormatting sqref="M23:N23">
+    <cfRule type="containsBlanks" dxfId="90" priority="83">
+      <formula>LEN(TRIM(M23))=0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="89" priority="84" operator="equal">
       <formula>"x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K23:L23">
-    <cfRule type="cellIs" dxfId="96" priority="81" operator="equal">
+  <conditionalFormatting sqref="M23:N23">
+    <cfRule type="cellIs" dxfId="88" priority="81" operator="equal">
       <formula>"v"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="82">
@@ -2948,16 +3180,16 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K24:L24">
-    <cfRule type="containsBlanks" dxfId="95" priority="79">
-      <formula>LEN(TRIM(K24))=0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="94" priority="80" operator="equal">
+  <conditionalFormatting sqref="M24:N24">
+    <cfRule type="containsBlanks" dxfId="87" priority="79">
+      <formula>LEN(TRIM(M24))=0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="86" priority="80" operator="equal">
       <formula>"x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K24:L24">
-    <cfRule type="cellIs" dxfId="93" priority="77" operator="equal">
+  <conditionalFormatting sqref="M24:N24">
+    <cfRule type="cellIs" dxfId="85" priority="77" operator="equal">
       <formula>"v"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="78">
@@ -2969,16 +3201,16 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K22:L22">
-    <cfRule type="containsBlanks" dxfId="92" priority="75">
-      <formula>LEN(TRIM(K22))=0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="91" priority="76" operator="equal">
+  <conditionalFormatting sqref="M22:N22">
+    <cfRule type="containsBlanks" dxfId="84" priority="75">
+      <formula>LEN(TRIM(M22))=0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="83" priority="76" operator="equal">
       <formula>"x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K22:L22">
-    <cfRule type="cellIs" dxfId="90" priority="73" operator="equal">
+  <conditionalFormatting sqref="M22:N22">
+    <cfRule type="cellIs" dxfId="82" priority="73" operator="equal">
       <formula>"v"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="74">
@@ -2990,16 +3222,16 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K25:L25">
-    <cfRule type="containsBlanks" dxfId="89" priority="71">
-      <formula>LEN(TRIM(K25))=0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="88" priority="72" operator="equal">
+  <conditionalFormatting sqref="M25:N25">
+    <cfRule type="containsBlanks" dxfId="81" priority="71">
+      <formula>LEN(TRIM(M25))=0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="80" priority="72" operator="equal">
       <formula>"x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K25:L25">
-    <cfRule type="cellIs" dxfId="87" priority="69" operator="equal">
+  <conditionalFormatting sqref="M25:N25">
+    <cfRule type="cellIs" dxfId="79" priority="69" operator="equal">
       <formula>"v"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="70">
@@ -3011,16 +3243,16 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K26:L26">
-    <cfRule type="containsBlanks" dxfId="86" priority="67">
-      <formula>LEN(TRIM(K26))=0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="85" priority="68" operator="equal">
+  <conditionalFormatting sqref="M26:N26">
+    <cfRule type="containsBlanks" dxfId="78" priority="67">
+      <formula>LEN(TRIM(M26))=0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="77" priority="68" operator="equal">
       <formula>"x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K26:L26">
-    <cfRule type="cellIs" dxfId="84" priority="65" operator="equal">
+  <conditionalFormatting sqref="M26:N26">
+    <cfRule type="cellIs" dxfId="76" priority="65" operator="equal">
       <formula>"v"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="66">
@@ -3032,16 +3264,16 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K27:L27">
-    <cfRule type="containsBlanks" dxfId="83" priority="63">
-      <formula>LEN(TRIM(K27))=0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="82" priority="64" operator="equal">
+  <conditionalFormatting sqref="M27:N27">
+    <cfRule type="containsBlanks" dxfId="75" priority="63">
+      <formula>LEN(TRIM(M27))=0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="74" priority="64" operator="equal">
       <formula>"x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K27:L27">
-    <cfRule type="cellIs" dxfId="81" priority="61" operator="equal">
+  <conditionalFormatting sqref="M27:N27">
+    <cfRule type="cellIs" dxfId="73" priority="61" operator="equal">
       <formula>"v"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="62">
@@ -3053,16 +3285,16 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K28:L28">
-    <cfRule type="containsBlanks" dxfId="80" priority="59">
-      <formula>LEN(TRIM(K28))=0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="79" priority="60" operator="equal">
+  <conditionalFormatting sqref="M28:N28">
+    <cfRule type="containsBlanks" dxfId="72" priority="59">
+      <formula>LEN(TRIM(M28))=0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="71" priority="60" operator="equal">
       <formula>"x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K28:L28">
-    <cfRule type="cellIs" dxfId="78" priority="57" operator="equal">
+  <conditionalFormatting sqref="M28:N28">
+    <cfRule type="cellIs" dxfId="70" priority="57" operator="equal">
       <formula>"v"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="58">
@@ -3074,16 +3306,16 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F30:G30">
-    <cfRule type="containsBlanks" dxfId="77" priority="55">
-      <formula>LEN(TRIM(F30))=0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="76" priority="56" operator="equal">
+  <conditionalFormatting sqref="H30:I30">
+    <cfRule type="containsBlanks" dxfId="69" priority="55">
+      <formula>LEN(TRIM(H30))=0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="68" priority="56" operator="equal">
       <formula>"x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F30:G30">
-    <cfRule type="cellIs" dxfId="75" priority="53" operator="equal">
+  <conditionalFormatting sqref="H30:I30">
+    <cfRule type="cellIs" dxfId="67" priority="53" operator="equal">
       <formula>"v"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="54">
@@ -3095,16 +3327,16 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H30:I30">
-    <cfRule type="containsBlanks" dxfId="74" priority="51">
-      <formula>LEN(TRIM(H30))=0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="73" priority="52" operator="equal">
+  <conditionalFormatting sqref="J30:K30">
+    <cfRule type="containsBlanks" dxfId="66" priority="51">
+      <formula>LEN(TRIM(J30))=0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="65" priority="52" operator="equal">
       <formula>"x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H30:I30">
-    <cfRule type="cellIs" dxfId="72" priority="49" operator="equal">
+  <conditionalFormatting sqref="J30:K30">
+    <cfRule type="cellIs" dxfId="64" priority="49" operator="equal">
       <formula>"v"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="50">
@@ -3116,16 +3348,16 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I30:J30">
-    <cfRule type="containsBlanks" dxfId="71" priority="47">
-      <formula>LEN(TRIM(I30))=0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="70" priority="48" operator="equal">
+  <conditionalFormatting sqref="K30:L30">
+    <cfRule type="containsBlanks" dxfId="63" priority="47">
+      <formula>LEN(TRIM(K30))=0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="62" priority="48" operator="equal">
       <formula>"x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I30:J30">
-    <cfRule type="cellIs" dxfId="69" priority="45" operator="equal">
+  <conditionalFormatting sqref="K30:L30">
+    <cfRule type="cellIs" dxfId="61" priority="45" operator="equal">
       <formula>"v"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="46">
@@ -3137,16 +3369,16 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K30">
-    <cfRule type="containsBlanks" dxfId="68" priority="43">
-      <formula>LEN(TRIM(K30))=0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="67" priority="44" operator="equal">
+  <conditionalFormatting sqref="M30">
+    <cfRule type="containsBlanks" dxfId="60" priority="43">
+      <formula>LEN(TRIM(M30))=0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="59" priority="44" operator="equal">
       <formula>"x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K30">
-    <cfRule type="cellIs" dxfId="66" priority="41" operator="equal">
+  <conditionalFormatting sqref="M30">
+    <cfRule type="cellIs" dxfId="58" priority="41" operator="equal">
       <formula>"v"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="42">
@@ -3158,16 +3390,16 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L30">
-    <cfRule type="containsBlanks" dxfId="65" priority="39">
-      <formula>LEN(TRIM(L30))=0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="64" priority="40" operator="equal">
+  <conditionalFormatting sqref="N30">
+    <cfRule type="containsBlanks" dxfId="57" priority="39">
+      <formula>LEN(TRIM(N30))=0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="56" priority="40" operator="equal">
       <formula>"x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L30">
-    <cfRule type="cellIs" dxfId="63" priority="37" operator="equal">
+  <conditionalFormatting sqref="N30">
+    <cfRule type="cellIs" dxfId="55" priority="37" operator="equal">
       <formula>"v"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="38">
@@ -3179,16 +3411,16 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K20:L20">
-    <cfRule type="containsBlanks" dxfId="53" priority="35">
-      <formula>LEN(TRIM(K20))=0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="52" priority="36" operator="equal">
+  <conditionalFormatting sqref="M20:N20">
+    <cfRule type="containsBlanks" dxfId="54" priority="35">
+      <formula>LEN(TRIM(M20))=0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="53" priority="36" operator="equal">
       <formula>"x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K20:L20">
-    <cfRule type="cellIs" dxfId="49" priority="33" operator="equal">
+  <conditionalFormatting sqref="M20:N20">
+    <cfRule type="cellIs" dxfId="52" priority="33" operator="equal">
       <formula>"v"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="34">
@@ -3200,16 +3432,16 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F29:J29">
-    <cfRule type="containsBlanks" dxfId="47" priority="31">
-      <formula>LEN(TRIM(F29))=0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="32" operator="equal">
+  <conditionalFormatting sqref="H29:L29">
+    <cfRule type="containsBlanks" dxfId="51" priority="31">
+      <formula>LEN(TRIM(H29))=0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="50" priority="32" operator="equal">
       <formula>"x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F29:J29">
-    <cfRule type="cellIs" dxfId="43" priority="29" operator="equal">
+  <conditionalFormatting sqref="H29:L29">
+    <cfRule type="cellIs" dxfId="49" priority="29" operator="equal">
       <formula>"v"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="30">
@@ -3221,16 +3453,16 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K29">
-    <cfRule type="containsBlanks" dxfId="41" priority="27">
-      <formula>LEN(TRIM(K29))=0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="28" operator="equal">
+  <conditionalFormatting sqref="M29">
+    <cfRule type="containsBlanks" dxfId="48" priority="27">
+      <formula>LEN(TRIM(M29))=0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="47" priority="28" operator="equal">
       <formula>"x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K29">
-    <cfRule type="cellIs" dxfId="37" priority="25" operator="equal">
+  <conditionalFormatting sqref="M29">
+    <cfRule type="cellIs" dxfId="46" priority="25" operator="equal">
       <formula>"v"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="26">
@@ -3242,16 +3474,16 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L29">
-    <cfRule type="containsBlanks" dxfId="35" priority="23">
-      <formula>LEN(TRIM(L29))=0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="24" operator="equal">
+  <conditionalFormatting sqref="N29">
+    <cfRule type="containsBlanks" dxfId="45" priority="23">
+      <formula>LEN(TRIM(N29))=0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="44" priority="24" operator="equal">
       <formula>"x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L29">
-    <cfRule type="cellIs" dxfId="31" priority="21" operator="equal">
+  <conditionalFormatting sqref="N29">
+    <cfRule type="cellIs" dxfId="43" priority="21" operator="equal">
       <formula>"v"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="22">
@@ -3263,16 +3495,16 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K29:L29">
-    <cfRule type="containsBlanks" dxfId="29" priority="19">
-      <formula>LEN(TRIM(K29))=0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="20" operator="equal">
+  <conditionalFormatting sqref="M29:N29">
+    <cfRule type="containsBlanks" dxfId="42" priority="19">
+      <formula>LEN(TRIM(M29))=0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="41" priority="20" operator="equal">
       <formula>"x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K29:L29">
-    <cfRule type="cellIs" dxfId="25" priority="17" operator="equal">
+  <conditionalFormatting sqref="M29:N29">
+    <cfRule type="cellIs" dxfId="40" priority="17" operator="equal">
       <formula>"v"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="18">
@@ -3284,16 +3516,16 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F30:J30">
-    <cfRule type="containsBlanks" dxfId="23" priority="15">
-      <formula>LEN(TRIM(F30))=0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="16" operator="equal">
+  <conditionalFormatting sqref="H30:L30">
+    <cfRule type="containsBlanks" dxfId="39" priority="15">
+      <formula>LEN(TRIM(H30))=0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="38" priority="16" operator="equal">
       <formula>"x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F30:J30">
-    <cfRule type="cellIs" dxfId="19" priority="13" operator="equal">
+  <conditionalFormatting sqref="H30:L30">
+    <cfRule type="cellIs" dxfId="37" priority="13" operator="equal">
       <formula>"v"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="14">
@@ -3305,16 +3537,16 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K30">
-    <cfRule type="containsBlanks" dxfId="17" priority="11">
-      <formula>LEN(TRIM(K30))=0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="12" operator="equal">
+  <conditionalFormatting sqref="M30">
+    <cfRule type="containsBlanks" dxfId="36" priority="11">
+      <formula>LEN(TRIM(M30))=0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="35" priority="12" operator="equal">
       <formula>"x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K30">
-    <cfRule type="cellIs" dxfId="13" priority="9" operator="equal">
+  <conditionalFormatting sqref="M30">
+    <cfRule type="cellIs" dxfId="34" priority="9" operator="equal">
       <formula>"v"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="10">
@@ -3326,16 +3558,16 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L30">
-    <cfRule type="containsBlanks" dxfId="11" priority="7">
-      <formula>LEN(TRIM(L30))=0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="8" operator="equal">
+  <conditionalFormatting sqref="N30">
+    <cfRule type="containsBlanks" dxfId="33" priority="7">
+      <formula>LEN(TRIM(N30))=0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="32" priority="8" operator="equal">
       <formula>"x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L30">
-    <cfRule type="cellIs" dxfId="7" priority="5" operator="equal">
+  <conditionalFormatting sqref="N30">
+    <cfRule type="cellIs" dxfId="31" priority="5" operator="equal">
       <formula>"v"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="6">
@@ -3347,16 +3579,16 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K30:L30">
-    <cfRule type="containsBlanks" dxfId="5" priority="3">
-      <formula>LEN(TRIM(K30))=0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="4" operator="equal">
+  <conditionalFormatting sqref="M30:N30">
+    <cfRule type="containsBlanks" dxfId="30" priority="3">
+      <formula>LEN(TRIM(M30))=0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="29" priority="4" operator="equal">
       <formula>"x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K30:L30">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+  <conditionalFormatting sqref="M30:N30">
+    <cfRule type="cellIs" dxfId="28" priority="1" operator="equal">
       <formula>"v"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="2">
@@ -3371,4 +3603,2474 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B3:G16"/>
+  <sheetViews>
+    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8"/>
+  <cols>
+    <col min="3" max="3" width="56.296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.69921875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="36.296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="52.69921875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:7">
+      <c r="B3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7">
+      <c r="B4" s="4">
+        <v>1</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7">
+      <c r="B5" s="4">
+        <v>2</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7">
+      <c r="B6" s="4">
+        <v>3</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7">
+      <c r="B7" s="4">
+        <v>4</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7">
+      <c r="B8" s="4">
+        <v>5</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7">
+      <c r="B9" s="4">
+        <v>6</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7">
+      <c r="B10" s="4">
+        <v>7</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7">
+      <c r="B11" s="4">
+        <v>8</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7">
+      <c r="B12" s="4">
+        <v>9</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7">
+      <c r="B13" s="4">
+        <v>10</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7">
+      <c r="B14" s="4">
+        <v>11</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7">
+      <c r="B15" s="4">
+        <v>12</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7">
+      <c r="B16" s="4">
+        <v>13</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="G4:G16">
+    <cfRule type="containsBlanks" dxfId="3" priority="7">
+      <formula>LEN(TRIM(G4))=0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="8" operator="equal">
+      <formula>"x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G4:G15">
+    <cfRule type="cellIs" dxfId="1" priority="5" operator="equal">
+      <formula>"v"</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFFF7128"/>
+        <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G16">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>"v"</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFFF7128"/>
+        <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B4:G16"/>
+  <sheetViews>
+    <sheetView rightToLeft="1" topLeftCell="B3" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5:C16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8"/>
+  <cols>
+    <col min="2" max="2" width="10.19921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="71.19921875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.09765625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31.69921875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="52.69921875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.59765625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="2:7">
+      <c r="B4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7">
+      <c r="B5" s="4">
+        <v>1</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7">
+      <c r="B6" s="4">
+        <v>2</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7">
+      <c r="B7" s="4">
+        <v>3</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7">
+      <c r="B8" s="4">
+        <v>4</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7">
+      <c r="B9" s="4">
+        <v>5</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7">
+      <c r="B10" s="4">
+        <v>6</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7">
+      <c r="B11" s="4">
+        <v>7</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7">
+      <c r="B12" s="4">
+        <v>8</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7">
+      <c r="B13" s="4">
+        <v>9</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7">
+      <c r="B14" s="4">
+        <v>10</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7">
+      <c r="B15" s="4">
+        <v>11</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7">
+      <c r="B16" s="4">
+        <v>12</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="G5:G16">
+    <cfRule type="containsBlanks" dxfId="9" priority="163">
+      <formula>LEN(TRIM(G5))=0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="164" operator="equal">
+      <formula>"x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G5:G16">
+    <cfRule type="cellIs" dxfId="7" priority="179" operator="equal">
+      <formula>"v"</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="180">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFFF7128"/>
+        <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="E4:J16"/>
+  <sheetViews>
+    <sheetView rightToLeft="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5:F16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8"/>
+  <cols>
+    <col min="5" max="5" width="10.19921875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="48.8984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.09765625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.296875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="52.69921875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.59765625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="5:10">
+      <c r="E4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="5:10">
+      <c r="E5" s="4">
+        <v>1</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="5:10">
+      <c r="E6" s="4">
+        <v>2</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="5:10">
+      <c r="E7" s="4">
+        <v>3</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="5:10">
+      <c r="E8" s="4">
+        <v>4</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="5:10">
+      <c r="E9" s="4">
+        <v>5</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="5:10">
+      <c r="E10" s="4">
+        <v>6</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="5:10">
+      <c r="E11" s="4">
+        <v>7</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="5:10">
+      <c r="E12" s="4">
+        <v>8</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="5:10">
+      <c r="E13" s="4">
+        <v>9</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="5:10">
+      <c r="E14" s="4">
+        <v>10</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="5:10">
+      <c r="E15" s="4">
+        <v>11</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="5:10">
+      <c r="E16" s="4">
+        <v>12</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="J5:J16">
+    <cfRule type="containsBlanks" dxfId="27" priority="3">
+      <formula>LEN(TRIM(J5))=0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="26" priority="4" operator="equal">
+      <formula>"x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J5:J16">
+    <cfRule type="cellIs" dxfId="25" priority="1" operator="equal">
+      <formula>"v"</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFFF7128"/>
+        <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="C4:H16"/>
+  <sheetViews>
+    <sheetView rightToLeft="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5:D16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8"/>
+  <cols>
+    <col min="3" max="3" width="10.19921875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="48.8984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.09765625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.296875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="52.69921875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.59765625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="3:8">
+      <c r="C4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="3:8">
+      <c r="C5" s="4">
+        <v>1</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="3:8">
+      <c r="C6" s="4">
+        <v>2</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="3:8">
+      <c r="C7" s="4">
+        <v>3</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="3:8">
+      <c r="C8" s="4">
+        <v>4</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="3:8">
+      <c r="C9" s="4">
+        <v>5</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="3:8">
+      <c r="C10" s="4">
+        <v>6</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="3:8">
+      <c r="C11" s="4">
+        <v>7</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="3:8">
+      <c r="C12" s="4">
+        <v>8</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="3:8">
+      <c r="C13" s="4">
+        <v>9</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="3:8">
+      <c r="C14" s="4">
+        <v>10</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="3:8">
+      <c r="C15" s="4">
+        <v>11</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="3:8">
+      <c r="C16" s="4">
+        <v>12</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="H5:H16">
+    <cfRule type="containsBlanks" dxfId="24" priority="3">
+      <formula>LEN(TRIM(H5))=0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="23" priority="4" operator="equal">
+      <formula>"x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H5:H16">
+    <cfRule type="cellIs" dxfId="22" priority="1" operator="equal">
+      <formula>"v"</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFFF7128"/>
+        <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="C4:H16"/>
+  <sheetViews>
+    <sheetView rightToLeft="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5:D16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8"/>
+  <cols>
+    <col min="4" max="4" width="48.8984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.296875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="52.69921875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.59765625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="3:8">
+      <c r="C4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="3:8">
+      <c r="C5" s="4">
+        <v>1</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="3:8">
+      <c r="C6" s="4">
+        <v>2</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="3:8">
+      <c r="C7" s="4">
+        <v>3</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="3:8">
+      <c r="C8" s="4">
+        <v>4</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="3:8">
+      <c r="C9" s="4">
+        <v>5</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="3:8">
+      <c r="C10" s="4">
+        <v>6</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="3:8">
+      <c r="C11" s="4">
+        <v>7</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="3:8">
+      <c r="C12" s="4">
+        <v>8</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="3:8">
+      <c r="C13" s="4">
+        <v>9</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="3:8">
+      <c r="C14" s="4">
+        <v>10</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="3:8">
+      <c r="C15" s="4">
+        <v>11</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="3:8">
+      <c r="C16" s="4">
+        <v>12</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="H5:H16">
+    <cfRule type="containsBlanks" dxfId="21" priority="3">
+      <formula>LEN(TRIM(H5))=0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="20" priority="4" operator="equal">
+      <formula>"x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H5:H16">
+    <cfRule type="cellIs" dxfId="19" priority="1" operator="equal">
+      <formula>"v"</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFFF7128"/>
+        <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="C5:H17"/>
+  <sheetViews>
+    <sheetView rightToLeft="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6:D17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8"/>
+  <cols>
+    <col min="4" max="4" width="48.8984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.296875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="52.69921875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.59765625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="3:8">
+      <c r="C5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="3:8">
+      <c r="C6" s="4">
+        <v>1</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="3:8">
+      <c r="C7" s="4">
+        <v>2</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="3:8">
+      <c r="C8" s="4">
+        <v>3</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="3:8">
+      <c r="C9" s="4">
+        <v>4</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="3:8">
+      <c r="C10" s="4">
+        <v>5</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="3:8">
+      <c r="C11" s="4">
+        <v>6</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="3:8">
+      <c r="C12" s="4">
+        <v>7</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="3:8">
+      <c r="C13" s="4">
+        <v>8</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="3:8">
+      <c r="C14" s="4">
+        <v>9</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="3:8">
+      <c r="C15" s="4">
+        <v>10</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="3:8">
+      <c r="C16" s="4">
+        <v>11</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="3:8">
+      <c r="C17" s="4">
+        <v>12</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="H6:H17">
+    <cfRule type="containsBlanks" dxfId="18" priority="3">
+      <formula>LEN(TRIM(H6))=0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="17" priority="4" operator="equal">
+      <formula>"x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H6:H17">
+    <cfRule type="cellIs" dxfId="16" priority="1" operator="equal">
+      <formula>"v"</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFFF7128"/>
+        <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView rightToLeft="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="C4:H16"/>
+  <sheetViews>
+    <sheetView rightToLeft="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5:D16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8"/>
+  <cols>
+    <col min="4" max="4" width="48.8984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.296875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="52.69921875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.59765625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="3:8">
+      <c r="C4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="3:8">
+      <c r="C5" s="4">
+        <v>1</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="3:8">
+      <c r="C6" s="4">
+        <v>2</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="3:8">
+      <c r="C7" s="4">
+        <v>3</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="3:8">
+      <c r="C8" s="4">
+        <v>4</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="3:8">
+      <c r="C9" s="4">
+        <v>5</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="3:8">
+      <c r="C10" s="4">
+        <v>6</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="3:8">
+      <c r="C11" s="4">
+        <v>7</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="3:8">
+      <c r="C12" s="4">
+        <v>8</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="3:8">
+      <c r="C13" s="4">
+        <v>9</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="3:8">
+      <c r="C14" s="4">
+        <v>10</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="3:8">
+      <c r="C15" s="4">
+        <v>11</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="3:8">
+      <c r="C16" s="4">
+        <v>12</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="H5:H16">
+    <cfRule type="containsBlanks" dxfId="15" priority="3">
+      <formula>LEN(TRIM(H5))=0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="14" priority="4" operator="equal">
+      <formula>"x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H5:H16">
+    <cfRule type="cellIs" dxfId="13" priority="1" operator="equal">
+      <formula>"v"</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFFF7128"/>
+        <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="C4:H16"/>
+  <sheetViews>
+    <sheetView rightToLeft="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5:D16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8"/>
+  <cols>
+    <col min="4" max="4" width="48.8984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.69921875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.296875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="52.69921875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.59765625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="3:8">
+      <c r="C4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="3:8">
+      <c r="C5" s="4">
+        <v>1</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="3:8">
+      <c r="C6" s="4">
+        <v>2</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="3:8">
+      <c r="C7" s="4">
+        <v>3</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="3:8">
+      <c r="C8" s="4">
+        <v>4</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="3:8">
+      <c r="C9" s="4">
+        <v>5</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="3:8">
+      <c r="C10" s="4">
+        <v>6</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="3:8">
+      <c r="C11" s="4">
+        <v>7</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="3:8">
+      <c r="C12" s="4">
+        <v>8</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="3:8">
+      <c r="C13" s="4">
+        <v>9</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="3:8">
+      <c r="C14" s="4">
+        <v>10</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="3:8">
+      <c r="C15" s="4">
+        <v>11</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="3:8">
+      <c r="C16" s="4">
+        <v>12</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="H5:H16">
+    <cfRule type="containsBlanks" dxfId="12" priority="3">
+      <formula>LEN(TRIM(H5))=0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="4" operator="equal">
+      <formula>"x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H5:H16">
+    <cfRule type="cellIs" dxfId="10" priority="1" operator="equal">
+      <formula>"v"</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFFF7128"/>
+        <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>